--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_22_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_22_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.4907465392087316, 2.8761963346097277]</t>
+          <t>[2.4883041655788265, 2.8786387082396327]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.1304894595810282, 0.3892736397998595]</t>
+          <t>[0.13040101920707503, 0.3893620801738127]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.0002025486807581967</v>
+        <v>0.0002043048203799191</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0002025486807581967</v>
+        <v>0.0002043048203799191</v>
       </c>
       <c r="W2" t="n">
         <v>0.2430430430430484</v>
